--- a/trunk/Portfolio/Test Results/Outdoor/OutdoorGraph.xlsx
+++ b/trunk/Portfolio/Test Results/Outdoor/OutdoorGraph.xlsx
@@ -80,6 +80,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
+  <c:style val="1"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -247,33 +248,35 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="89349120"/>
-        <c:axId val="89383680"/>
+        <c:axId val="79418880"/>
+        <c:axId val="79420416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89349120"/>
+        <c:axId val="79418880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89383680"/>
+        <c:crossAx val="79420416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89383680"/>
+        <c:axId val="79420416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.6"/>
+          <c:min val="0.4"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89349120"/>
+        <c:crossAx val="79418880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -286,7 +289,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -297,15 +300,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -614,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/Portfolio/Test Results/Outdoor/OutdoorGraph.xlsx
+++ b/trunk/Portfolio/Test Results/Outdoor/OutdoorGraph.xlsx
@@ -16,30 +16,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
-    <t>CL</t>
+    <t>Number of anchor nodes</t>
   </si>
   <si>
-    <t>WCL</t>
+    <t>Centroid localization</t>
   </si>
   <si>
-    <t>MM</t>
+    <t>Relative position error (%)</t>
   </si>
   <si>
-    <t>TL</t>
+    <t>Standard deviation</t>
   </si>
   <si>
-    <t>LS TL</t>
+    <t>Weighted Centroild localization</t>
+  </si>
+  <si>
+    <t>Min-Max</t>
+  </si>
+  <si>
+    <t>Trilateration</t>
+  </si>
+  <si>
+    <t>Trilateration with least square</t>
+  </si>
+  <si>
+    <t>Outdoor test: graph</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -54,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -62,15 +91,198 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Kop 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -79,7 +291,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="nl-BE"/>
   <c:style val="1"/>
   <c:chart>
     <c:plotArea>
@@ -94,7 +306,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$F$2</c:f>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -115,7 +327,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$F$4</c:f>
+              <c:f>Sheet1!$B$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -139,11 +351,32 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Weighted Centroid Localization+Sheet1!$C$6:$F$6</c:v>
+            <c:v>Weighted Centroid Localization</c:v>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$F$6</c:f>
+              <c:f>Sheet1!$B$8:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -169,9 +402,30 @@
           <c:tx>
             <c:v>MinMax</c:v>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$F$8</c:f>
+              <c:f>Sheet1!$B$11:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -197,9 +451,30 @@
           <c:tx>
             <c:v>TriLaterion</c:v>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$10:$F$10</c:f>
+              <c:f>Sheet1!$B$14:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -225,9 +500,30 @@
           <c:tx>
             <c:v>LS TriLateration</c:v>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$12:$F$12</c:f>
+              <c:f>Sheet1!$B$17:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -248,25 +544,48 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="79418880"/>
-        <c:axId val="79420416"/>
+        <c:axId val="53645312"/>
+        <c:axId val="67932160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79418880"/>
+        <c:axId val="53645312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" baseline="0"/>
+                  <a:t> of anchor nodes</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79420416"/>
+        <c:crossAx val="67932160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79420416"/>
+        <c:axId val="67932160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.6"/>
@@ -274,9 +593,32 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Relative</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" baseline="0"/>
+                  <a:t> position error (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79418880"/>
+        <c:crossAx val="53645312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -289,7 +631,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -299,16 +641,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28573</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28573</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -331,9 +673,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -371,7 +713,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -441,7 +783,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -615,180 +957,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:6">
-      <c r="C2">
+    <row r="1" spans="1:5" ht="23.25">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.5">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="C3" s="11">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="D3" s="11">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="E3" s="12">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
+    <row r="4" spans="1:5" ht="19.5">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
         <v>0.75987308434406009</v>
       </c>
-      <c r="D4">
+      <c r="C5" s="5">
         <v>0.72401569862685</v>
       </c>
-      <c r="E4">
+      <c r="D5" s="5">
         <v>0.73540353141205839</v>
       </c>
-      <c r="F4">
+      <c r="E5" s="13">
         <v>0.71588143122231263</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
-      <c r="C5">
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15">
         <v>0.19474842232161058</v>
       </c>
-      <c r="D5">
+      <c r="C6" s="9">
         <v>0.13225112066698833</v>
       </c>
-      <c r="E5">
+      <c r="D6" s="9">
         <v>0.12405807212103073</v>
       </c>
-      <c r="F5">
+      <c r="E6" s="10">
         <v>0.12594439016454609</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
+    <row r="7" spans="1:5" ht="19.5">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4">
         <v>0.75982725915388571</v>
       </c>
-      <c r="D6">
+      <c r="C8" s="5">
         <v>0.64601950460547675</v>
       </c>
-      <c r="E6">
+      <c r="D8" s="5">
         <v>0.66130750529987226</v>
       </c>
-      <c r="F6">
+      <c r="E8" s="13">
         <v>0.62710150860614478</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="C7">
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="15">
         <v>0.1740926597545272</v>
       </c>
-      <c r="D7">
+      <c r="C9" s="9">
         <v>0.1834629617438531</v>
       </c>
-      <c r="E7">
+      <c r="D9" s="9">
         <v>0.16036054702686781</v>
       </c>
-      <c r="F7">
+      <c r="E9" s="10">
         <v>0.15457767256523128</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" t="s">
+    <row r="10" spans="1:5" ht="19.5">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8">
+      <c r="B11" s="4">
         <v>0.78040058591795891</v>
       </c>
-      <c r="D8">
+      <c r="C11" s="5">
         <v>0.5294613700473797</v>
       </c>
-      <c r="E8">
+      <c r="D11" s="5">
         <v>0.51340278372717485</v>
       </c>
-      <c r="F8">
+      <c r="E11" s="13">
         <v>0.55132690995694733</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="C9">
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="15">
         <v>0.21481468913362153</v>
       </c>
-      <c r="D9">
+      <c r="C12" s="9">
         <v>0.34272623883690989</v>
       </c>
-      <c r="E9">
+      <c r="D12" s="9">
         <v>0.28797772982677816</v>
       </c>
-      <c r="F9">
+      <c r="E12" s="10">
         <v>0.21804341617072309</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" t="s">
+    <row r="13" spans="1:5" ht="19.5">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.76926199040023813</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.57327490349535049</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.55605442840007047</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.75534486841427384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
-        <v>0.76926199040023813</v>
-      </c>
-      <c r="D10">
-        <v>0.57327490349535049</v>
-      </c>
-      <c r="E10">
-        <v>0.55605442840007047</v>
-      </c>
-      <c r="F10">
-        <v>0.75534486841427384</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="C11">
+      <c r="B15" s="15">
         <v>0.27150714140216159</v>
       </c>
-      <c r="D11">
+      <c r="C15" s="9">
         <v>0.34570655297008612</v>
       </c>
-      <c r="E11">
+      <c r="D15" s="9">
         <v>0.2760328179305081</v>
       </c>
-      <c r="F11">
+      <c r="E15" s="10">
         <v>0.29737515841806617</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
+    <row r="16" spans="1:5" ht="19.5">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4">
         <v>1.5647929311155377</v>
       </c>
-      <c r="D12">
+      <c r="C17" s="5">
         <v>1.095790190481104</v>
       </c>
-      <c r="E12">
+      <c r="D17" s="5">
         <v>0.83413889309517331</v>
       </c>
-      <c r="F12">
+      <c r="E17" s="13">
         <v>1.5875073288766417</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="C13">
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="15">
         <v>0.84978729717726853</v>
       </c>
-      <c r="D13">
+      <c r="C18" s="9">
         <v>0.93363978598731734</v>
       </c>
-      <c r="E13">
+      <c r="D18" s="9">
         <v>0.23826704265913476</v>
       </c>
-      <c r="F13">
+      <c r="E18" s="10">
         <v>1.3619353640301144</v>
       </c>
     </row>
